--- a/experimentação/rosenbrock_shifted/experimento_shifted_rosenbrock_100_dimensoes_pcdeepso.xlsx
+++ b/experimentação/rosenbrock_shifted/experimento_shifted_rosenbrock_100_dimensoes_pcdeepso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a10f9ab6fab0dff6/Documentos/UFRJ/TCC/powell-cdeepso/experimentação/rosenbrock_shifted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_4BA68BC475FCDA878625651427358AD3F29CC124" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90617595-36E5-44E4-9D03-8A04B916D685}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4BA68BC475FCDA878625651427358AD3F29CC124" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB27BC6-569F-4498-ABEB-4575FFD047A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="4410" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -510,6 +510,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
